--- a/Productbacklog_group58.xlsx
+++ b/Productbacklog_group58.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28717"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2785ED-6362-4642-B860-A29F7955D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C7A522-21D8-44E6-9EDB-8DEAB3D8090A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8890" yWindow="3240" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3915" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>Story ID</t>
   </si>
@@ -67,12 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">As an end user, 
-I want the personal finance tracker to analyze past spending data during similar occasions in the same location, 
-So that it can provide me with accurate estimates of how much I might spend during these festive periods. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">As an end user, 
 I want the personal finance tracker to help me adjust my budget accordingly, 
 So that I can manage my finances better during local celebrations. </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,20 +90,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">As an administrator, 
-I want to get the customer's nickname, password, email, gender, and date of birth when they register their account, 
-so that I can open an account for a new customer and enter the account information into the system. 
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Query User Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">As an administrator, 
-I want to look up users based on a specific level, 
-so that I can issue different benefits to different levels of customers. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -147,17 +126,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Special Management of Rred Envelope</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Cash Flow Visualization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">As a WeChat user, 
-I want automatic detection of red packets sent and received recorded and labeled as "Human relations" category, 
-so that the gift money will not be miscounted as daily consumption. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -271,21 +240,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AI Predicts Holiday Spending</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Holiday Budget Proposal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception Monitoring Board</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">As a risk controller, 
-I want real-time alerts when single-user daily transaction frequency &gt; 20 times, 
-so that suspicious money laundering can be checked in time. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -371,23 +326,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.Verify that all red packets are automatically detected and added to the transaction history.
-2.Ensure detected red packets are exclusively labeled under "Human relations".</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.Verify that the system suggests a holiday budget based on past spending, income, and user-defined preferences.
 2.Verify that users can adjust the proposed budget before finalizing it for holiday expenses.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Verify that the system displays real-time alerts for unusual transactions, such as sudden large expenditures or frequent transactions.
-2.Verify that flagged exceptions are categorized and prioritized for user review and risk assessment.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Verify that the system analyzes past holiday spending patterns and generates an estimated budget for upcoming holidays.
-2.Verify that users receive spending predictions with an accuracy rate of at least 90% based on historical data.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -505,6 +445,50 @@
   </si>
   <si>
     <t>Membership expiration reminder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">As an administrator, 
+I want to get the customer's nickname, password, email, gender, and date of birth when they register their account, 
+so that I can open an account for a new customer and enter the account information into the system. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Import Consumption Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">As an administrator,
+ I want to import my own consumption data, 
+so that I can count the consumption information through this software. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Verify that system supports importing consumption data in common formats. (e.g., CSV) 
+2.Verify that system automatically detects data columns (e.g., timestamp, usage, unit) and provides a field mapping configuration interface.
+3.Verify that system checks data integrity during import (e.g., missing fields, invalid values), flags erroneous rows, and provides a downloadable error report.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">As an administrator, 
+I want to look up users based on a specific level (VIP/Normal), 
+so that I can issue different benefits to different levels of customers. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add or Modify User Information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">As an end user,
+I want to modify my account's profiles, 
+so that I can make sure my information is correct. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Verify that system allows logged-in users to access and modify their profile information (e.g., name, email, phone number) from their account settings.
+2.Verify that users can click “Save” to update their profile, and the system confirms the update with a success message.
+3.Verify that the updated information is immediately reflected across the user’s account and any associated services.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -695,12 +679,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="slantDashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -741,7 +762,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1049,27 +1079,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="80.150000000000006" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="108.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="96.90625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9.07421875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.07421875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="108.921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.4609375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.07421875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="96.921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.23046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26.23046875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.69140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" customFormat="1" ht="29.15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
@@ -1098,669 +1128,640 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
+      <c r="B3" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8">
         <v>2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>96</v>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>37</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G10" s="8"/>
       <c r="H10" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E11" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E12" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>97</v>
+      <c r="B13" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" s="8">
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>41</v>
+      <c r="B15" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E17" s="8">
         <v>3</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>13</v>
+      <c r="B18" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E18" s="8">
         <v>4</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="H18" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E19" s="8">
         <v>4</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>51</v>
+      <c r="B20" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E20" s="8">
         <v>4</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>12</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G20" s="8"/>
       <c r="H20" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E21" s="8">
         <v>4</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E22" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E23" s="8">
         <v>5</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="12">
+        <v>5</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="8">
-        <v>5</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="12">
-        <v>5</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="80.150000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="80.150000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
